--- a/biology/Botanique/Brachystegia_mildbraedii/Brachystegia_mildbraedii.xlsx
+++ b/biology/Botanique/Brachystegia_mildbraedii/Brachystegia_mildbraedii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachystegia mildbraedii[1] est un arbre de taille moyenne de la famille des Caesalpiniaceae (Leguminosae - Caesalpinioideae), que l’on trouve principalement dans l’ouest du Cameroun, en Guinée équatoriale, ainsi qu’au Gabon. Son bois est connu sous le nom de bomanga ou encore ekop évène[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachystegia mildbraedii est un arbre de taille moyenne de la famille des Caesalpiniaceae (Leguminosae - Caesalpinioideae), que l’on trouve principalement dans l’ouest du Cameroun, en Guinée équatoriale, ainsi qu’au Gabon. Son bois est connu sous le nom de bomanga ou encore ekop évène.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’arbre peut atteindre 40 m de haut. Son fût, droit et cylindrique, non ramifié sur 20 m, fait jusqu’à 200 cm de diamètre[2].
-L’écorce est lisse à rugueuse, elle se desquame en plaques non régulières, de couleur gris rosé à gris foncé, généralement avec des tâches verdâtres. La cime est arrondie, les rameaux glabres à relativement poilus, de couleur noirâtre[2].
-Les feuilles sont alternes, avec 5-20 paires de folioles[2].
-L’arbre produit des inflorescences arrondies, courtes, avec de nombreuses fleurs. Celles-ci sont bisexuées, de petite taille et odorantes, sans pétales. Le fruit se présente sous la forme d’une gousse oblongue à obovoïde, aplatie, de 20-30 cm sur 6-10 cm, d’aspect lisse et de couleur brun rougeâtre à brun foncé, voire noire à maturité. Les graines font environ 3 cm de diamètre, et sont de couleur brun foncé[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’arbre peut atteindre 40 m de haut. Son fût, droit et cylindrique, non ramifié sur 20 m, fait jusqu’à 200 cm de diamètre.
+L’écorce est lisse à rugueuse, elle se desquame en plaques non régulières, de couleur gris rosé à gris foncé, généralement avec des tâches verdâtres. La cime est arrondie, les rameaux glabres à relativement poilus, de couleur noirâtre.
+Les feuilles sont alternes, avec 5-20 paires de folioles.
+L’arbre produit des inflorescences arrondies, courtes, avec de nombreuses fleurs. Celles-ci sont bisexuées, de petite taille et odorantes, sans pétales. Le fruit se présente sous la forme d’une gousse oblongue à obovoïde, aplatie, de 20-30 cm sur 6-10 cm, d’aspect lisse et de couleur brun rougeâtre à brun foncé, voire noire à maturité. Les graines font environ 3 cm de diamètre, et sont de couleur brun foncé.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois est utilisé pour la construction, pour le mobilier et l’ébénisterie notamment. Son écorce est employé pour la fabrication de sacs à grains, de filets de chasse, de pièges, d’étoffes, ainsi que pour celle de bidons à eau[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est utilisé pour la construction, pour le mobilier et l’ébénisterie notamment. Son écorce est employé pour la fabrication de sacs à grains, de filets de chasse, de pièges, d’étoffes, ainsi que pour celle de bidons à eau. 
 </t>
         </is>
       </c>
